--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2501314.20038745</v>
+        <v>-2504050.513408685</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.88089494079168</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>311.793419129628</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.220339676512253</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>7.071580684721913</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>213.3030737629346</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.68317396692382</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>34.48151443747368</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.0292272300896</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>174.0149897475858</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>196.4436205839867</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.147300480974</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>229.5193286751008</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>156.4724178104794</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.89300584088389</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.5034532829751</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>30.97191586387646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545307</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2536,7 +2536,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265259</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541837</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652571</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="C2" t="n">
-        <v>158.9142690056416</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6204357321147</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.9768937697195</v>
+        <v>1427.332745766616</v>
       </c>
       <c r="C4" t="n">
-        <v>777.9768937697195</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="D4" t="n">
-        <v>627.8602543573837</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>2346.881678134565</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>2057.763340638402</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>2057.763340638402</v>
       </c>
       <c r="W4" t="n">
-        <v>1180.417937743489</v>
+        <v>2057.763340638402</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.417937743489</v>
+        <v>1829.773789740385</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.6253585999592</v>
+        <v>1608.981210596855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.157886370743</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>683.7982798220356</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>938.4827680279225</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>683.7982798220356</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>683.7982798220356</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X7" t="n">
-        <v>683.7982798220356</v>
+        <v>249.6746861477877</v>
       </c>
       <c r="Y7" t="n">
-        <v>683.7982798220356</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.233203697441</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2706867570294</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.8570290615538</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1255.41469198592</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384193</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472318</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>989.7610553472318</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>953.5054938917935</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>205.0736424164617</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.5507239167111</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2401.759668664207</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.158203687148</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1893.082977031346</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.398488825459</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.981318788498</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.991767890481</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.1991887469509</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6145,28 +6145,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6178,19 +6178,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,16 +6415,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,13 +6789,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,28 +6838,28 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7564,10 +7564,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60.35797727397625</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143849</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>162.0073097921334</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>313.8021466798913</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>95.08262661208346</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162.0264814221156</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8398243696672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.11201973523728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>136.274905234752</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26323,13 +26323,13 @@
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
-      </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20526.0442466071</v>
@@ -26338,13 +26338,13 @@
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363183</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25907.59795980398</v>
+        <v>25907.59795980394</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,22 +26427,22 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="I4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="J4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
@@ -26451,7 +26451,7 @@
         <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980083</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217714.077649207</v>
+        <v>-1218178.374441232</v>
       </c>
       <c r="C6" t="n">
-        <v>-204321.4550248626</v>
+        <v>-204321.4550248625</v>
       </c>
       <c r="D6" t="n">
         <v>-204321.4550248625</v>
       </c>
       <c r="E6" t="n">
-        <v>-595326.7309529101</v>
+        <v>-595361.4688783458</v>
       </c>
       <c r="F6" t="n">
-        <v>-87841.28932836432</v>
+        <v>-87876.0272538</v>
       </c>
       <c r="G6" t="n">
-        <v>-87841.28932836432</v>
+        <v>-87876.02725380001</v>
       </c>
       <c r="H6" t="n">
-        <v>-87841.28932836431</v>
+        <v>-87876.02725379998</v>
       </c>
       <c r="I6" t="n">
         <v>-116954.0733607409</v>
@@ -26546,22 +26546,22 @@
         <v>-265131.5331770917</v>
       </c>
       <c r="K6" t="n">
+        <v>-97526.35536710918</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-97526.35536710915</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-230133.6490960358</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-116954.073360741</v>
+      </c>
+      <c r="O6" t="n">
         <v>-97526.35536710912</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>-97526.35536710914</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-230133.6490960359</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-116954.0733607409</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-97526.35536710914</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-97526.35536710912</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.3623819618473</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>7.44562223427738</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>330.7913773335339</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.208711425964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>112.2121643736148</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>22.14103276810809</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.5865411825066</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>135.7535630959067</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>129.7547363107213</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6916475112109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="26">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>246.9454735174611</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34796,7 +34796,7 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452394</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>535.6747904601046</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>411.6868389156656</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K25" t="n">
         <v>288.6172359016747</v>
@@ -36522,19 +36522,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
